--- a/Design/Statics.xlsx
+++ b/Design/Statics.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>I</t>
   </si>
@@ -45,15 +45,30 @@
   <si>
     <t>Force</t>
   </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Max KSI</t>
+  </si>
+  <si>
+    <t>% strength</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0\&quot;"/>
-    <numFmt numFmtId="168" formatCode="00000\ \l\b"/>
-    <numFmt numFmtId="169" formatCode="0.0000\&quot;"/>
+    <numFmt numFmtId="164" formatCode="0\&quot;"/>
+    <numFmt numFmtId="165" formatCode="00000\ \l\b"/>
+    <numFmt numFmtId="166" formatCode="0.0000\&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -92,12 +107,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,46 +163,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.91145833333333326</c:v>
+                  <c:v>3.4947916666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55175781249999989</c:v>
+                  <c:v>1.984049479166667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37814271999999982</c:v>
+                  <c:v>1.3288413866666673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29233472000000016</c:v>
+                  <c:v>1.0169107200000012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.162648031232</c:v>
+                  <c:v>0.55782874589866704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3072916666666661</c:v>
+                  <c:v>7.0677083333333339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9762369791666661</c:v>
+                  <c:v>3.9150390625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9844573866666657</c:v>
+                  <c:v>2.5991987200000022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5155987199999998</c:v>
+                  <c:v>1.9813427200000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.203125</c:v>
+                  <c:v>19.338541666666664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2757161458333321</c:v>
+                  <c:v>10.433268229166664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4595720533333356</c:v>
+                  <c:v>6.8615133866666724</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1500627200000082</c:v>
+                  <c:v>5.2086067200000059</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2552835085653342</c:v>
+                  <c:v>2.8251613538986717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -198,46 +214,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.75</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9375</c:v>
+                  <c:v>1.4375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61439999999999984</c:v>
+                  <c:v>0.93440000000000012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46560000000000024</c:v>
+                  <c:v>0.70560000000000045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25190400000000013</c:v>
+                  <c:v>0.3799039999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.75</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4375</c:v>
+                  <c:v>1.6875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93440000000000012</c:v>
+                  <c:v>1.0944000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.70560000000000045</c:v>
+                  <c:v>0.82560000000000144</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.75</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9375</c:v>
+                  <c:v>2.1875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2544000000000004</c:v>
+                  <c:v>1.4144000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94560000000000066</c:v>
+                  <c:v>1.0655999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.50790399999999991</c:v>
+                  <c:v>0.57190399999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -252,11 +268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="46085632"/>
-        <c:axId val="46084096"/>
+        <c:axId val="183212672"/>
+        <c:axId val="183398784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46085632"/>
+        <c:axId val="183212672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -266,12 +282,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46084096"/>
+        <c:crossAx val="183398784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46084096"/>
+        <c:axId val="183398784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -282,7 +298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46085632"/>
+        <c:crossAx val="183212672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -626,20 +642,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J19"/>
+  <dimension ref="B4:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -667,28 +683,43 @@
       <c r="J5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>0.25</v>
       </c>
       <c r="E6">
         <f>(B6*C6^3)/12</f>
-        <v>1.3333333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="F6">
         <f>E6-(((B6-(D6*2))*(C6-(D6*2))^3)/12)</f>
-        <v>0.91145833333333326</v>
+        <v>3.4947916666666665</v>
       </c>
       <c r="G6">
         <f>(B6*C6)-((B6-(D6*2))*(C6-(D6*2)))</f>
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="H6" s="2">
         <v>20</v>
@@ -698,30 +729,49 @@
       </c>
       <c r="J6" s="4">
         <f>(I6*(H6^3))/(48*29000000*F6)</f>
-        <v>6.3054187192118222E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1.6444832725217122E-2</v>
+      </c>
+      <c r="K6">
+        <f>I6/2*H6/2</f>
+        <v>50000</v>
+      </c>
+      <c r="L6">
+        <f>C6/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="M6">
+        <f>(K6*L6)/F6</f>
+        <v>21460.506706408345</v>
+      </c>
+      <c r="N6">
+        <v>36000</v>
+      </c>
+      <c r="O6" s="5">
+        <f>(M6/N6)</f>
+        <v>0.5961251862891207</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>0.125</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E18" si="0">(B7*C7^3)/12</f>
-        <v>1.3333333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="F7">
         <f t="shared" ref="F7:F18" si="1">E7-(((B7-(D7*2))*(C7-(D7*2))^3)/12)</f>
-        <v>0.55175781249999989</v>
+        <v>1.984049479166667</v>
       </c>
       <c r="G7">
         <f t="shared" ref="G7:G18" si="2">(B7*C7)-((B7-(D7*2))*(C7-(D7*2)))</f>
-        <v>0.9375</v>
+        <v>1.4375</v>
       </c>
       <c r="H7" s="2">
         <v>20</v>
@@ -731,30 +781,49 @@
       </c>
       <c r="J7" s="4">
         <f t="shared" ref="J7:J19" si="3">(I7*(H7^3))/(48*29000000*F7)</f>
-        <v>0.10416030922591803</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2.8966648751096145E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K19" si="4">I7/2*H7/2</f>
+        <v>50000</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L19" si="5">C7/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M19" si="6">(K7*L7)/F7</f>
+        <v>37801.476620180467</v>
+      </c>
+      <c r="N7">
+        <v>36000</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" ref="O7:O19" si="7">(M7/N7)</f>
+        <v>1.0500410172272352</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>0.08</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>0.37814271999999982</v>
+        <v>1.3288413866666673</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>0.61439999999999984</v>
+        <v>0.93440000000000012</v>
       </c>
       <c r="H8" s="2">
         <v>20</v>
@@ -764,30 +833,49 @@
       </c>
       <c r="J8" s="4">
         <f t="shared" si="3"/>
-        <v>0.1519829982917987</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+        <v>4.3249152942158059E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>56440.144589516269</v>
+      </c>
+      <c r="N8">
+        <v>36000</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="7"/>
+        <v>1.5677817941532297</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>0.06</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.29233472000000016</v>
+        <v>1.0169107200000012</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>0.46560000000000024</v>
+        <v>0.70560000000000045</v>
       </c>
       <c r="H9" s="2">
         <v>20</v>
@@ -797,30 +885,49 @@
       </c>
       <c r="J9" s="4">
         <f t="shared" si="3"/>
-        <v>0.1965940424996937</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+        <v>5.6515545797192528E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>73752.787265336243</v>
+      </c>
+      <c r="N9">
+        <v>36000</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="7"/>
+        <v>2.0486885351482291</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10" si="4">(B10*C10^3)/12</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" ref="E10" si="8">(B10*C10^3)/12</f>
+        <v>6.75</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10" si="5">E10-(((B10-(D10*2))*(C10-(D10*2))^3)/12)</f>
-        <v>0.162648031232</v>
+        <f t="shared" ref="F10" si="9">E10-(((B10-(D10*2))*(C10-(D10*2))^3)/12)</f>
+        <v>0.55782874589866704</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10" si="6">(B10*C10)-((B10-(D10*2))*(C10-(D10*2)))</f>
-        <v>0.25190400000000013</v>
+        <f t="shared" ref="G10" si="10">(B10*C10)-((B10-(D10*2))*(C10-(D10*2)))</f>
+        <v>0.3799039999999998</v>
       </c>
       <c r="H10" s="2">
         <v>20</v>
@@ -829,13 +936,32 @@
         <v>10000</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" ref="J10" si="7">(I10*(H10^3))/(48*29000000*F10)</f>
-        <v>0.35334743330424634</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J10" si="11">(I10*(H10^3))/(48*29000000*F10)</f>
+        <v>0.1030267170531511</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>134449.8657543622</v>
+      </c>
+      <c r="N10">
+        <v>36000</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="7"/>
+        <v>3.7347184931767274</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -845,15 +971,15 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>10.666666666666666</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>5.3072916666666661</v>
+        <v>7.0677083333333339</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="H11" s="2">
         <v>20</v>
@@ -863,12 +989,31 @@
       </c>
       <c r="J11" s="4">
         <f t="shared" si="3"/>
-        <v>1.0828736760177322E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+        <v>8.1315274566106776E-3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>14148.857774502578</v>
+      </c>
+      <c r="N11">
+        <v>36000</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="7"/>
+        <v>0.39302382706951605</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -878,15 +1023,15 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>10.666666666666666</v>
+        <v>16</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>2.9762369791666661</v>
+        <v>3.9150390625</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>1.4375</v>
+        <v>1.6875</v>
       </c>
       <c r="H12" s="2">
         <v>20</v>
@@ -896,12 +1041,31 @@
       </c>
       <c r="J12" s="4">
         <f t="shared" si="3"/>
-        <v>1.9310043108162648E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1.4679614545433694E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>25542.529309054626</v>
+      </c>
+      <c r="N12">
+        <v>36000</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7095147030292952</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -911,15 +1075,15 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>10.666666666666666</v>
+        <v>16</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>1.9844573866666657</v>
+        <v>2.5991987200000022</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>0.93440000000000012</v>
+        <v>1.0944000000000003</v>
       </c>
       <c r="H13" s="2">
         <v>20</v>
@@ -929,12 +1093,31 @@
       </c>
       <c r="J13" s="4">
         <f t="shared" si="3"/>
-        <v>2.8960694623103883E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2.2111146764421323E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>38473.395370093102</v>
+      </c>
+      <c r="N13">
+        <v>36000</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="7"/>
+        <v>1.0687054269470306</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -944,15 +1127,15 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>10.666666666666666</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>1.5155987199999998</v>
+        <v>1.9813427200000007</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>0.70560000000000045</v>
+        <v>0.82560000000000144</v>
       </c>
       <c r="H14" s="2">
         <v>20</v>
@@ -962,12 +1145,31 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="3"/>
-        <v>3.7919842244137088E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2.9006220775281158E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>50470.82414898921</v>
+      </c>
+      <c r="N14">
+        <v>36000</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="7"/>
+        <v>1.4019673374719226</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -977,15 +1179,15 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>15.203125</v>
+        <v>19.338541666666664</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="H15" s="2">
         <v>20</v>
@@ -995,12 +1197,31 @@
       </c>
       <c r="J15" s="4">
         <f t="shared" si="3"/>
-        <v>3.7802270498871839E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2.9718509988205469E-3</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>7756.5311069216277</v>
+      </c>
+      <c r="N15">
+        <v>36000</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="7"/>
+        <v>0.21545919741448966</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -1010,15 +1231,15 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>8.2757161458333321</v>
+        <v>10.433268229166664</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>1.9375</v>
+        <v>2.1875</v>
       </c>
       <c r="H16" s="2">
         <v>20</v>
@@ -1028,12 +1249,31 @@
       </c>
       <c r="J16" s="4">
         <f t="shared" si="3"/>
-        <v>6.9445668936762408E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+        <v>5.5084622675714047E-3</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>14377.086518361364</v>
+      </c>
+      <c r="N16">
+        <v>36000</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="7"/>
+        <v>0.39936351439892676</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -1043,15 +1283,15 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>5.4595720533333356</v>
+        <v>6.8615133866666724</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>1.2544000000000004</v>
+        <v>1.4144000000000005</v>
       </c>
       <c r="H17" s="2">
         <v>20</v>
@@ -1061,12 +1301,31 @@
       </c>
       <c r="J17" s="4">
         <f t="shared" si="3"/>
-        <v>1.0526697661720038E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+        <v>8.3758875235155194E-3</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>21861.066436375502</v>
+      </c>
+      <c r="N17">
+        <v>36000</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="7"/>
+        <v>0.60725184545487509</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -1076,15 +1335,15 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>4.1500627200000082</v>
+        <v>5.2086067200000059</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>0.94560000000000066</v>
+        <v>1.0655999999999999</v>
       </c>
       <c r="H18" s="2">
         <v>20</v>
@@ -1094,12 +1353,31 @@
       </c>
       <c r="J18" s="4">
         <f t="shared" si="3"/>
-        <v>1.3848288145345423E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1.1033903586373291E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>28798.48836043429</v>
+      </c>
+      <c r="N18">
+        <v>36000</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="7"/>
+        <v>0.79995801001206357</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -1108,16 +1386,16 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19" si="8">(B19*C19^3)/12</f>
-        <v>36</v>
+        <f t="shared" ref="E19" si="12">(B19*C19^3)/12</f>
+        <v>54</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19" si="9">E19-(((B19-(D19*2))*(C19-(D19*2))^3)/12)</f>
-        <v>2.2552835085653342</v>
+        <f t="shared" ref="F19" si="13">E19-(((B19-(D19*2))*(C19-(D19*2))^3)/12)</f>
+        <v>2.8251613538986717</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19" si="10">(B19*C19)-((B19-(D19*2))*(C19-(D19*2)))</f>
-        <v>0.50790399999999991</v>
+        <f t="shared" ref="G19" si="14">(B19*C19)-((B19-(D19*2))*(C19-(D19*2)))</f>
+        <v>0.57190399999999997</v>
       </c>
       <c r="H19" s="2">
         <v>20</v>
@@ -1127,8 +1405,42 @@
       </c>
       <c r="J19" s="4">
         <f t="shared" si="3"/>
-        <v>2.5482944450019768E-2</v>
-      </c>
+        <v>2.0342648496344033E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>53094.312575457931</v>
+      </c>
+      <c r="N19">
+        <v>36000</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="7"/>
+        <v>1.4748420159849425</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/Statics.xlsx
+++ b/Design/Statics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>I</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>% strength</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
 </sst>
 </file>
@@ -193,7 +199,7 @@
                   <c:v>19.338541666666664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.433268229166664</c:v>
+                  <c:v>15.06719970703125</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6.8615133866666724</c:v>
@@ -203,6 +209,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2.8251613538986717</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -244,7 +253,7 @@
                   <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1875</c:v>
+                  <c:v>3.234375</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.4144000000000005</c:v>
@@ -254,6 +263,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.57190399999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -268,11 +280,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="183212672"/>
-        <c:axId val="183398784"/>
+        <c:axId val="183139328"/>
+        <c:axId val="183159040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="183212672"/>
+        <c:axId val="183139328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -282,12 +294,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183398784"/>
+        <c:crossAx val="183159040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183398784"/>
+        <c:axId val="183159040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -298,7 +310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183212672"/>
+        <c:crossAx val="183139328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -324,13 +336,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
@@ -642,20 +654,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:O22"/>
+  <dimension ref="B4:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -687,19 +704,25 @@
         <v>11</v>
       </c>
       <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
         <v>12</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>10</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>13</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -735,23 +758,27 @@
         <f>I6/2*H6/2</f>
         <v>50000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
+        <f t="shared" ref="M6:M9" si="0">H6*C6*B6*L6</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
         <f>C6/2</f>
         <v>1.5</v>
       </c>
-      <c r="M6">
-        <f>(K6*L6)/F6</f>
+      <c r="O6">
+        <f>(K6*N6)/F6</f>
         <v>21460.506706408345</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>36000</v>
       </c>
-      <c r="O6" s="5">
-        <f>(M6/N6)</f>
+      <c r="Q6" s="5">
+        <f>(O6/P6)</f>
         <v>0.5961251862891207</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -762,15 +789,15 @@
         <v>0.125</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E18" si="0">(B7*C7^3)/12</f>
+        <f t="shared" ref="E7:E18" si="1">(B7*C7^3)/12</f>
         <v>6.75</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F18" si="1">E7-(((B7-(D7*2))*(C7-(D7*2))^3)/12)</f>
+        <f t="shared" ref="F7:F18" si="2">E7-(((B7-(D7*2))*(C7-(D7*2))^3)/12)</f>
         <v>1.984049479166667</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G18" si="2">(B7*C7)-((B7-(D7*2))*(C7-(D7*2)))</f>
+        <f t="shared" ref="G7:G18" si="3">(B7*C7)-((B7-(D7*2))*(C7-(D7*2)))</f>
         <v>1.4375</v>
       </c>
       <c r="H7" s="2">
@@ -780,30 +807,34 @@
         <v>10000</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" ref="J7:J19" si="3">(I7*(H7^3))/(48*29000000*F7)</f>
+        <f t="shared" ref="J7:J20" si="4">(I7*(H7^3))/(48*29000000*F7)</f>
         <v>2.8966648751096145E-2</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K19" si="4">I7/2*H7/2</f>
+        <f t="shared" ref="K7:K19" si="5">I7/2*H7/2</f>
         <v>50000</v>
       </c>
-      <c r="L7">
-        <f t="shared" ref="L7:L19" si="5">C7/2</f>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N19" si="6">C7/2</f>
         <v>1.5</v>
       </c>
-      <c r="M7">
-        <f t="shared" ref="M7:M19" si="6">(K7*L7)/F7</f>
+      <c r="O7">
+        <f t="shared" ref="O7:O19" si="7">(K7*N7)/F7</f>
         <v>37801.476620180467</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>36000</v>
       </c>
-      <c r="O7" s="5">
-        <f t="shared" ref="O7:O19" si="7">(M7/N7)</f>
+      <c r="Q7" s="5">
+        <f t="shared" ref="Q7:Q19" si="8">(O7/P7)</f>
         <v>1.0500410172272352</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3</v>
       </c>
@@ -814,15 +845,15 @@
         <v>0.08</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.75</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3288413866666673</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.93440000000000012</v>
       </c>
       <c r="H8" s="2">
@@ -832,30 +863,34 @@
         <v>10000</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3249152942158059E-2</v>
       </c>
       <c r="K8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="5"/>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
+      <c r="O8">
+        <f t="shared" si="7"/>
         <v>56440.144589516269</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>36000</v>
       </c>
-      <c r="O8" s="5">
-        <f t="shared" si="7"/>
+      <c r="Q8" s="5">
+        <f t="shared" si="8"/>
         <v>1.5677817941532297</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
@@ -866,15 +901,15 @@
         <v>0.06</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.75</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0169107200000012</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70560000000000045</v>
       </c>
       <c r="H9" s="2">
@@ -884,30 +919,34 @@
         <v>10000</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.6515545797192528E-2</v>
       </c>
       <c r="K9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="5"/>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="6"/>
+      <c r="O9">
+        <f t="shared" si="7"/>
         <v>73752.787265336243</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>36000</v>
       </c>
-      <c r="O9" s="5">
-        <f t="shared" si="7"/>
+      <c r="Q9" s="5">
+        <f t="shared" si="8"/>
         <v>2.0486885351482291</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3</v>
       </c>
@@ -918,15 +957,15 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10" si="8">(B10*C10^3)/12</f>
+        <f t="shared" ref="E10" si="9">(B10*C10^3)/12</f>
         <v>6.75</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10" si="9">E10-(((B10-(D10*2))*(C10-(D10*2))^3)/12)</f>
+        <f t="shared" ref="F10" si="10">E10-(((B10-(D10*2))*(C10-(D10*2))^3)/12)</f>
         <v>0.55782874589866704</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10" si="10">(B10*C10)-((B10-(D10*2))*(C10-(D10*2)))</f>
+        <f t="shared" ref="G10" si="11">(B10*C10)-((B10-(D10*2))*(C10-(D10*2)))</f>
         <v>0.3799039999999998</v>
       </c>
       <c r="H10" s="2">
@@ -936,30 +975,34 @@
         <v>10000</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" ref="J10" si="11">(I10*(H10^3))/(48*29000000*F10)</f>
+        <f t="shared" ref="J10" si="12">(I10*(H10^3))/(48*29000000*F10)</f>
         <v>0.1030267170531511</v>
       </c>
       <c r="K10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="5"/>
+      <c r="M10">
+        <f t="shared" ref="M10:M19" si="13">H10*C10*B10*L10</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="6"/>
+      <c r="O10">
+        <f t="shared" si="7"/>
         <v>134449.8657543622</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>36000</v>
       </c>
-      <c r="O10" s="5">
-        <f t="shared" si="7"/>
+      <c r="Q10" s="5">
+        <f t="shared" si="8"/>
         <v>3.7347184931767274</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>3</v>
       </c>
@@ -970,15 +1013,15 @@
         <v>0.25</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0677083333333339</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.25</v>
       </c>
       <c r="H11" s="2">
@@ -988,30 +1031,34 @@
         <v>10000</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.1315274566106776E-3</v>
       </c>
       <c r="K11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="5"/>
+      <c r="M11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="6"/>
+      <c r="O11">
+        <f t="shared" si="7"/>
         <v>14148.857774502578</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>36000</v>
       </c>
-      <c r="O11" s="5">
-        <f t="shared" si="7"/>
+      <c r="Q11" s="5">
+        <f t="shared" si="8"/>
         <v>0.39302382706951605</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>3</v>
       </c>
@@ -1022,15 +1069,15 @@
         <v>0.125</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9150390625</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6875</v>
       </c>
       <c r="H12" s="2">
@@ -1040,30 +1087,34 @@
         <v>10000</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4679614545433694E-2</v>
       </c>
       <c r="K12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="5"/>
+      <c r="M12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="6"/>
+      <c r="O12">
+        <f t="shared" si="7"/>
         <v>25542.529309054626</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>36000</v>
       </c>
-      <c r="O12" s="5">
-        <f t="shared" si="7"/>
+      <c r="Q12" s="5">
+        <f t="shared" si="8"/>
         <v>0.7095147030292952</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>3</v>
       </c>
@@ -1074,15 +1125,15 @@
         <v>0.08</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5991987200000022</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0944000000000003</v>
       </c>
       <c r="H13" s="2">
@@ -1092,30 +1143,34 @@
         <v>10000</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2111146764421323E-2</v>
       </c>
       <c r="K13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="5"/>
+      <c r="M13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="6"/>
+      <c r="O13">
+        <f t="shared" si="7"/>
         <v>38473.395370093102</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>36000</v>
       </c>
-      <c r="O13" s="5">
-        <f t="shared" si="7"/>
+      <c r="Q13" s="5">
+        <f t="shared" si="8"/>
         <v>1.0687054269470306</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>3</v>
       </c>
@@ -1126,15 +1181,15 @@
         <v>0.06</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9813427200000007</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82560000000000144</v>
       </c>
       <c r="H14" s="2">
@@ -1144,30 +1199,34 @@
         <v>10000</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9006220775281158E-2</v>
       </c>
       <c r="K14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="5"/>
+      <c r="M14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="6"/>
+      <c r="O14">
+        <f t="shared" si="7"/>
         <v>50470.82414898921</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>36000</v>
       </c>
-      <c r="O14" s="5">
-        <f t="shared" si="7"/>
+      <c r="Q14" s="5">
+        <f t="shared" si="8"/>
         <v>1.4019673374719226</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>3</v>
       </c>
@@ -1178,15 +1237,15 @@
         <v>0.25</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.338541666666664</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.25</v>
       </c>
       <c r="H15" s="2">
@@ -1196,30 +1255,34 @@
         <v>10000</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9718509988205469E-3</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
       <c r="M15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
         <v>7756.5311069216277</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>36000</v>
       </c>
-      <c r="O15" s="5">
-        <f t="shared" si="7"/>
+      <c r="Q15" s="5">
+        <f t="shared" si="8"/>
         <v>0.21545919741448966</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>3</v>
       </c>
@@ -1227,19 +1290,19 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
-        <v>10.433268229166664</v>
+        <f t="shared" si="2"/>
+        <v>15.06719970703125</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
-        <v>2.1875</v>
+        <f t="shared" si="3"/>
+        <v>3.234375</v>
       </c>
       <c r="H16" s="2">
         <v>20</v>
@@ -1248,30 +1311,34 @@
         <v>10000</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="3"/>
-        <v>5.5084622675714047E-3</v>
+        <f t="shared" si="4"/>
+        <v>3.8143295028469416E-3</v>
       </c>
       <c r="K16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
       <c r="M16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="6"/>
-        <v>14377.086518361364</v>
-      </c>
-      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>9955.4000024305169</v>
+      </c>
+      <c r="P16">
         <v>36000</v>
       </c>
-      <c r="O16" s="5">
-        <f t="shared" si="7"/>
-        <v>0.39936351439892676</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q16" s="5">
+        <f t="shared" si="8"/>
+        <v>0.27653888895640327</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>3</v>
       </c>
@@ -1282,15 +1349,15 @@
         <v>0.08</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8615133866666724</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4144000000000005</v>
       </c>
       <c r="H17" s="2">
@@ -1300,30 +1367,34 @@
         <v>10000</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3758875235155194E-3</v>
       </c>
       <c r="K17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
       <c r="M17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
         <v>21861.066436375502</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>36000</v>
       </c>
-      <c r="O17" s="5">
-        <f t="shared" si="7"/>
+      <c r="Q17" s="5">
+        <f t="shared" si="8"/>
         <v>0.60725184545487509</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>3</v>
       </c>
@@ -1334,15 +1405,15 @@
         <v>0.06</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2086067200000059</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0655999999999999</v>
       </c>
       <c r="H18" s="2">
@@ -1352,30 +1423,34 @@
         <v>10000</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1033903586373291E-2</v>
       </c>
       <c r="K18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
       <c r="M18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
         <v>28798.48836043429</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>36000</v>
       </c>
-      <c r="O18" s="5">
-        <f t="shared" si="7"/>
+      <c r="Q18" s="5">
+        <f t="shared" si="8"/>
         <v>0.79995801001206357</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>3</v>
       </c>
@@ -1386,15 +1461,15 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19" si="12">(B19*C19^3)/12</f>
+        <f t="shared" ref="E19" si="14">(B19*C19^3)/12</f>
         <v>54</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19" si="13">E19-(((B19-(D19*2))*(C19-(D19*2))^3)/12)</f>
+        <f t="shared" ref="F19" si="15">E19-(((B19-(D19*2))*(C19-(D19*2))^3)/12)</f>
         <v>2.8251613538986717</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19" si="14">(B19*C19)-((B19-(D19*2))*(C19-(D19*2)))</f>
+        <f t="shared" ref="G19" si="16">(B19*C19)-((B19-(D19*2))*(C19-(D19*2)))</f>
         <v>0.57190399999999997</v>
       </c>
       <c r="H19" s="2">
@@ -1404,40 +1479,152 @@
         <v>10000</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0342648496344033E-2</v>
       </c>
       <c r="K19">
+        <f t="shared" si="5"/>
+        <v>50000</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>53094.312575457931</v>
+      </c>
+      <c r="P19">
+        <v>36000</v>
+      </c>
+      <c r="Q19" s="5">
+        <f t="shared" si="8"/>
+        <v>1.4748420159849425</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20">
+        <v>0.25</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20" si="17">(B20*C20^3)/12</f>
+        <v>0.125</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20" si="18">E20-(((B20-(D20*2))*(C20-(D20*2))^3)/12)</f>
+        <v>0.125</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20" si="19">(B20*C20)-((B20-(D20*2))*(C20-(D20*2)))</f>
+        <v>6</v>
+      </c>
+      <c r="H20" s="2">
+        <v>9</v>
+      </c>
+      <c r="I20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J20" s="4">
         <f t="shared" si="4"/>
+        <v>3.3517241379310343E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20" si="20">I20/2*H20/2</f>
+        <v>18000</v>
+      </c>
+      <c r="L20">
+        <v>9.7543000000000005E-2</v>
+      </c>
+      <c r="M20">
+        <f>H20*C20*B20*L20</f>
+        <v>5.2673220000000001</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20" si="21">C20/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20" si="22">(K20*N20)/F20</f>
+        <v>36000</v>
+      </c>
+      <c r="P20">
+        <v>36000</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" ref="Q20" si="23">(O20/P20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21" si="24">(B21*C21^3)/12</f>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21" si="25">E21-(((B21-(D21*2))*(C21-(D21*2))^3)/12)</f>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21" si="26">(B21*C21)-((B21-(D21*2))*(C21-(D21*2)))</f>
+        <v>12</v>
+      </c>
+      <c r="H21" s="2">
+        <v>20</v>
+      </c>
+      <c r="I21" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" ref="J21" si="27">(I21*(H21^3))/(48*29000000*F21)</f>
+        <v>5.7471264367816091E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21" si="28">I21/2*H21/2</f>
         <v>50000</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="6"/>
-        <v>53094.312575457931</v>
-      </c>
-      <c r="N19">
+      <c r="L21">
+        <v>9.7543000000000005E-2</v>
+      </c>
+      <c r="M21">
+        <f>H21*C21*B21*L21</f>
+        <v>23.410320000000002</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ref="N21" si="29">C21/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ref="O21" si="30">(K21*N21)/F21</f>
+        <v>25000</v>
+      </c>
+      <c r="P21">
         <v>36000</v>
       </c>
-      <c r="O19" s="5">
-        <f t="shared" si="7"/>
-        <v>1.4748420159849425</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H20" s="2"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H21" s="2"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q21" s="5">
+        <f t="shared" ref="Q21" si="31">(O21/P21)</f>
+        <v>0.69444444444444442</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
       <c r="J22" s="4"/>

--- a/Design/Statics.xlsx
+++ b/Design/Statics.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="480" yWindow="30" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>I</t>
   </si>
@@ -65,6 +66,12 @@
   </si>
   <si>
     <t>Weight</t>
+  </si>
+  <si>
+    <t>Modulus</t>
+  </si>
+  <si>
+    <t>Max PSI</t>
   </si>
 </sst>
 </file>
@@ -164,12 +171,12 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$6:$F$20</c:f>
+              <c:f>'Sheet1 (2)'!$F$6:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3.4947916666666665</c:v>
+                  <c:v>107.03645833333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.984049479166667</c:v>
@@ -218,12 +225,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$6:$G$20</c:f>
+              <c:f>'Sheet1 (2)'!$G$6:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.75</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.4375</c:v>
@@ -280,11 +287,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="183139328"/>
-        <c:axId val="183159040"/>
+        <c:axId val="48125824"/>
+        <c:axId val="48127360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="183139328"/>
+        <c:axId val="48125824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -294,12 +301,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183159040"/>
+        <c:crossAx val="48127360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183159040"/>
+        <c:axId val="48127360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -310,7 +317,205 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183139328"/>
+        <c:crossAx val="48125824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$6:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.4947916666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.984049479166667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3288413866666673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0169107200000012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55782874589866704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0677083333333339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9150390625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5991987200000022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9813427200000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.338541666666664</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.06719970703125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.8615133866666724</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2086067200000059</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8251613538986717</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93440000000000012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70560000000000045</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3799039999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0944000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82560000000000144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.234375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4144000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0655999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57190399999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="148569088"/>
+        <c:axId val="149095168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="148569088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="149095168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="149095168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148569088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -333,6 +538,43 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -654,10 +896,1048 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:R22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E6">
+        <f>(B6*C6^3)/12</f>
+        <v>500</v>
+      </c>
+      <c r="F6">
+        <f>E6-(((B6-(D6*2))*(C6-(D6*2))^3)/12)</f>
+        <v>107.03645833333331</v>
+      </c>
+      <c r="G6">
+        <f>(B6*C6)-((B6-(D6*2))*(C6-(D6*2)))</f>
+        <v>7.75</v>
+      </c>
+      <c r="H6" s="2">
+        <v>48</v>
+      </c>
+      <c r="I6" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1885490.5904900001</v>
+      </c>
+      <c r="K6" s="4">
+        <f>(I6*(H6^3))/(48*J6*F6)</f>
+        <v>0.136995916093263</v>
+      </c>
+      <c r="L6">
+        <f>I6/2*H6/2</f>
+        <v>144000</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N19" si="0">H6*C6*B6*M6</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>C6/2</f>
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <f>(L6*O6)/F6</f>
+        <v>6726.6799669115871</v>
+      </c>
+      <c r="Q6">
+        <v>7250</v>
+      </c>
+      <c r="R6" s="5">
+        <f>(P6/Q6)</f>
+        <v>0.92781792647056371</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0.125</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E21" si="1">(B7*C7^3)/12</f>
+        <v>6.75</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F21" si="2">E7-(((B7-(D7*2))*(C7-(D7*2))^3)/12)</f>
+        <v>1.984049479166667</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G21" si="3">(B7*C7)-((B7-(D7*2))*(C7-(D7*2)))</f>
+        <v>1.4375</v>
+      </c>
+      <c r="H7" s="2">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1885490.5904900001</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" ref="K7:K21" si="4">(I7*(H7^3))/(48*J7*F7)</f>
+        <v>0.53462975716902261</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L21" si="5">I7/2*H7/2</f>
+        <v>60000</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:O21" si="6">C7/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:P21" si="7">(L7*O7)/F7</f>
+        <v>45361.771944216562</v>
+      </c>
+      <c r="Q7">
+        <v>7250</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" ref="R7:R21" si="8">(P7/Q7)</f>
+        <v>6.2567961302367667</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0.08</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>6.75</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1.3288413866666673</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0.93440000000000012</v>
+      </c>
+      <c r="H8" s="2">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1885490.5904900001</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="4"/>
+        <v>0.79823815084431882</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="7"/>
+        <v>67728.173507419531</v>
+      </c>
+      <c r="Q8">
+        <v>7250</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="8"/>
+        <v>9.3418170355061427</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0.06</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>6.75</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1.0169107200000012</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>0.70560000000000045</v>
+      </c>
+      <c r="H9" s="2">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1885490.5904900001</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0430924469536518</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="7"/>
+        <v>88503.344718403503</v>
+      </c>
+      <c r="Q9">
+        <v>7250</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="8"/>
+        <v>12.207357892193587</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>6.75</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.55782874589866704</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0.3799039999999998</v>
+      </c>
+      <c r="H10" s="2">
+        <v>20</v>
+      </c>
+      <c r="I10" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1885490.5904900001</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="4"/>
+        <v>1.9015368050804777</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="7"/>
+        <v>161339.83890523462</v>
+      </c>
+      <c r="Q10">
+        <v>7250</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="8"/>
+        <v>22.253770883480637</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>7.0677083333333339</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>3.25</v>
+      </c>
+      <c r="H11" s="2">
+        <v>20</v>
+      </c>
+      <c r="I11" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1885490.5904900001</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="4"/>
+        <v>0.1500814466629142</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="7"/>
+        <v>16978.629329403095</v>
+      </c>
+      <c r="Q11">
+        <v>7250</v>
+      </c>
+      <c r="R11" s="5">
+        <f t="shared" si="8"/>
+        <v>2.3418799075038752</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0.125</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>3.9150390625</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>1.6875</v>
+      </c>
+      <c r="H12" s="2">
+        <v>20</v>
+      </c>
+      <c r="I12" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1885490.5904900001</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="4"/>
+        <v>0.27093775421511546</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="7"/>
+        <v>30651.035170865551</v>
+      </c>
+      <c r="Q12">
+        <v>7250</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" si="8"/>
+        <v>4.2277289890849037</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>0.08</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>2.5991987200000022</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>1.0944000000000003</v>
+      </c>
+      <c r="H13" s="2">
+        <v>20</v>
+      </c>
+      <c r="I13" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1885490.5904900001</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="4"/>
+        <v>0.4080995743404337</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="7"/>
+        <v>46168.07444411172</v>
+      </c>
+      <c r="Q13">
+        <v>7250</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" si="8"/>
+        <v>6.3680102681533404</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0.06</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1.9813427200000007</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0.82560000000000144</v>
+      </c>
+      <c r="H14" s="2">
+        <v>20</v>
+      </c>
+      <c r="I14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1885490.5904900001</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="4"/>
+        <v>0.53536012752917417</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="7"/>
+        <v>60564.988978787049</v>
+      </c>
+      <c r="Q14">
+        <v>7250</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="8"/>
+        <v>8.353791583280973</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>19.338541666666664</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+      <c r="H15" s="2">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1885490.5904900001</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="4"/>
+        <v>5.4850666070986973E-2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="7"/>
+        <v>9307.8373283059536</v>
+      </c>
+      <c r="Q15">
+        <v>7250</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="8"/>
+        <v>1.2838396314904763</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>0.1875</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>15.06719970703125</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>3.234375</v>
+      </c>
+      <c r="H16" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1885490.5904900001</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="4"/>
+        <v>7.0400068485400147E-2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="7"/>
+        <v>11946.480002916622</v>
+      </c>
+      <c r="Q16">
+        <v>7250</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" si="8"/>
+        <v>1.6477903452298788</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>0.08</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>6.8615133866666724</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>1.4144000000000005</v>
+      </c>
+      <c r="H17" s="2">
+        <v>20</v>
+      </c>
+      <c r="I17" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1885490.5904900001</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="4"/>
+        <v>0.15459153563985178</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>26233.279723650605</v>
+      </c>
+      <c r="Q17">
+        <v>7250</v>
+      </c>
+      <c r="R17" s="5">
+        <f t="shared" si="8"/>
+        <v>3.618383410158704</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>0.06</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>5.2086067200000059</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>1.0655999999999999</v>
+      </c>
+      <c r="H18" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1885490.5904900001</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="4"/>
+        <v>0.20364983349293836</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="7"/>
+        <v>34558.186032521146</v>
+      </c>
+      <c r="Q18">
+        <v>7250</v>
+      </c>
+      <c r="R18" s="5">
+        <f t="shared" si="8"/>
+        <v>4.7666463493132616</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>2.8251613538986717</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0.57190399999999997</v>
+      </c>
+      <c r="H19" s="2">
+        <v>20</v>
+      </c>
+      <c r="I19" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1885490.5904900001</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="4"/>
+        <v>0.37545887062146388</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="7"/>
+        <v>63713.175090549514</v>
+      </c>
+      <c r="Q19">
+        <v>7250</v>
+      </c>
+      <c r="R19" s="5">
+        <f t="shared" si="8"/>
+        <v>8.7880241504206218</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20">
+        <v>0.25</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H20" s="2">
+        <v>9</v>
+      </c>
+      <c r="I20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1885490.5904900001</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="4"/>
+        <v>0.77327354872722853</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>27000</v>
+      </c>
+      <c r="M20">
+        <v>9.7543000000000005E-2</v>
+      </c>
+      <c r="N20">
+        <f>H20*C20*B20*M20</f>
+        <v>5.2673220000000001</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="7"/>
+        <v>54000</v>
+      </c>
+      <c r="Q20">
+        <v>7250</v>
+      </c>
+      <c r="R20" s="5">
+        <f t="shared" si="8"/>
+        <v>7.4482758620689653</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="H21" s="2">
+        <v>20</v>
+      </c>
+      <c r="I21" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1885490.5904900001</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0607318912582011</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="M21">
+        <v>9.7543000000000005E-2</v>
+      </c>
+      <c r="N21">
+        <f>H21*C21*B21*M21</f>
+        <v>23.410320000000002</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="7"/>
+        <v>30000</v>
+      </c>
+      <c r="Q21">
+        <v>7250</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="shared" si="8"/>
+        <v>4.1379310344827589</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
